--- a/finetuning/it_datasets/it_dataset/it_tajerouine_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_tajerouine_dataset.xlsx
@@ -658,10 +658,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for a satisfying dining experience, head to Big Ben Resto located at VHR3+G3R Big Ben Resto, Ave H.Bourguiba Rd, Tajerouine. 
-This highly-rated restaurant offers a range of delectable dishes, perfect for food enthusiasts. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:00-23:00. 
-To get there, use these GPS coordinates: 35.8868991, 8.5524255. For more details, visit their website at https://www.facebook.com/pages/Big-Ben-Resto/1643318282455345 or call them at 22 254 905.</t>
+          <t>**Big Ben Resto**, located in Tajerouine at the coordinates (35.8868991, 8.5524255), is a popular restaurant that boasts a 4.3-star rating based on 24 reviews. It operates from 9:00 AM to 11:00 PM every day, offering a wide range of dining options.</t>
         </is>
       </c>
     </row>
@@ -764,7 +761,15 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for something fun to do, check out Cafe Essalem located at VHV3+G86 Cafe Essalem, Ave H.Bourguiba Rd, Tajerouine. This top-rated destination is perfect for Cafe lovers. With a rating of 4.7, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 35.8868991, 8.5524255. For more details, visit their website  or call them at 40 188 684.</t>
+          <t>Cafe Essalem, located in Tajerouine (35.8868991, 8.5524255), is a well-rated cafe with a 4.7-star rating from 11 reviews. It is open 24 hours a day and offers a variety of services and amenities, including:
+- Featured image
+- Website
+- Owner information
+- Categories
+- Phone number
+- Address
+- Review keywords
+- Link to Google Maps listing</t>
         </is>
       </c>
     </row>
@@ -871,7 +876,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for a top-rated Restaurant familial, check out UP TOWN Cafe &amp; Resto located at WH34+3HC UP TOWN Cafe &amp; Resto. With a rating of 5.0, it's a must-visit spot for Restaurant familial lovers. It's open during these hours: 10:00-23:00. To get there, use these GPS coordinates: 38.905489, -77.005095. For more details, visit their website at https://m.facebook.com/Tajerouine-UpTown-102854505252105/posts or call them at 51 477 218.</t>
+          <t>UP TOWN Cafe &amp; Resto is a restaurant with a 5.0 rating, located in tajerouine (35.9026882, 8.5564023). The place offers family dining from 10:00-23:00 and can be contacted at 51 477 218.</t>
         </is>
       </c>
     </row>
@@ -974,9 +979,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for something fun to do, check out Dose coffee Shop located at VHQ2+J4V Dose coffee Shop, nhj lfrwsy@, Tajerouine. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:30-00:00, but closed on []. To get there, use these GPS coordinates: 35.8868991, 8.5524255. For more details, visit their website or call them at 28 567 145.</t>
+          <t>Dose coffee Shop is a cafe located in tajerouine at the coordinates (35.8868991, 8.5524255). It has a rating of 4.3 based on 6 reviews and is open from 07:30 to 00:00.</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1078,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for a great Restaurant, check out jbn lHmdny located at VHV3+Q43 jbn lHmdny, Tajerouine. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8868991, 8.5524255. For more details, visit their website at https://www.google.com/maps/place/%D8%A7%D8%AC%D8%A8%D8%A7%D9%86+%D8%A7%D9%84%D8%AD%D9%85%D8%AF%D8%A7%D9%86%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x12fbcbba3573dd39:0x9200a77821ce7db1!8m2!3d35.8943887!4d8.5528001!16s%2Fg%2F11j8p5mf9r!19sChIJOd1zNbrL-xIRsX3OIXinAJI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 061 517.</t>
+          <t>jbn lHmdny is a restaurant located in tajerouine, Tunisia (35.8868991, 8.5524255). The restaurant has 3 reviews and is highly rated with a 5.0 stars. jbn lHmdny is owned by jbn lHmdny (proprietaire). The primary category is Restaurant.</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1169,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>Immerse yourself in the vibrant culinary scene of tajerouine at Cafe galaxi, a top-rated destination for coffee enthusiasts. Located at VHW3+4R5, this must-visit spot promises an exquisite experience with its thoughtfully curated menu. Open during specific hours, Cafe galaxi offers a cozy ambiance and exceptional service. Embark on a culinary journey with a diverse range of coffee options and immerse yourself in the flavors of tajerouine at Cafe galaxi.</t>
+          <t>Cafe galaxi is located in tajerouine. Sadly, there is no available description for the place at the moment. Its coordinates are (35.8868991, 8.5524255).</t>
         </is>
       </c>
     </row>
@@ -1257,9 +1260,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for something fun to do, check out Tej Coffee located at WH34+8F Tej Coffee, Tajerouine. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8868991, 8.5524255. For more details, visit their website at https://www.google.com/maps/place/Tej+Coffee/data=!4m7!3m6!1s0x12fbcb5157546741:0x9a7107ae29fa5f2b!8m2!3d35.9034863!4d8.5562018!16s%2Fg%2F11pyyg0g45!19sChIJQWdUV1HL-xIRK1_6Ka4HcZo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Tej Coffee is a cafe located in Tajerouine, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The cafe is located at coordinates (35.8868991, 8.5524255) and its website and phone number are not available.</t>
         </is>
       </c>
     </row>
@@ -1362,7 +1363,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for some delicious groceries, visit Cirta Nova Cafe, conveniently located at VHV3+9G2 Cirta Nova Cafe, Ave H.Bourguiba Rd, Tajerouine. This highly-rated spot, with a 5.0 rating, offers a wide selection of quality groceries. Open during weekdays from 08:00-18:00, except on Sundays. For navigation, use these coordinates: 35.8868991, 8.5524255. You can reach them at 21 110 830 for any inquiries.</t>
+          <t>Cirta Nova Cafe is a local grocery store located in Tajerouine, Tunisia. Its exact coordinates are (35.8868991, 8.5524255). The store is open from 8 am to 6 pm every day except Sundays. They offer a wide variety of groceries, including fresh produce and packaged foods. The store is also known for its friendly staff and excellent customer service.</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1454,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for something fun to do, check out el mondial located at VHQ3+V2X el mondial, Tajerouine. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8868991, 8.5524255. For more details, visit their website at https://www.google.com/maps/place/el+mondial/data=!4m7!3m6!1s0x12fbcb06cee94b43:0x17d14d4f18aeb809!8m2!3d35.889741!4d8.5526097!16s%2Fg%2F11rqh47w7n!19sChIJQ0vpzgbL-xIRCbiuGE9N0Rc?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>El Mondial is a cafe located in Tajerouine, Tunisia. It is rated 5.0 out of 5 stars on Google and has received 1 review. El Mondial is categorized as a cafe and offers a variety of food and drinks. It is located at the coordinates (35.8868991, 8.5524255).</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1545,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for a top-rated Cafe, check out Cafe Ramsis located at WH34+X7 Cafe Ramsis, Tajerouine. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8868991, 8.5524255.</t>
+          <t>Cafe Ramsis is a highly-rated cafe in tajerouine, Tunisia. It is located at the coordinates (35.8868991, 8.5524255).</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1648,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for a great pizzeria, check out Lemporio located at VHR2+4RW Lemporio, Rue el hbib thamer, Tajerouine. With a rating of 5.0, it's a must-visit spot for Pizzeria lovers. It's open 24 hours a day, so you can enjoy their delicious pizzas anytime. To get there, use these GPS coordinates: 35.8868991, 8.5524255. For more details, visit their website at https://www.google.com/maps/place/Lemporio/data=!4m7!3m6!1s0x12fbcb68eab700c1:0xa68e2cee4334713c!8m2!3d35.890365!4d8.5520637!16s%2Fg%2F11t4z9lq0l!19sChIJwQC36mjL-xIRPHE0Q-4sjqY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 25 678 111.</t>
+          <t>Lemporio is a Pizzeria, located in tajerouine (lon.: 8.5524255, lat.: 35.8868991). It is open 24 hours a day and the contact number is 25 678 111.</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1755,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for a top-rated Cafe, check out Black Mood coffee shop located at WH34+X7 Black Mood coffee shop, Tajerouine. This Cafe destination offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 48.721922, 44.533853. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D61555927944852%26mibextid%3DZbWKwL or call them at 51 308 738.</t>
+          <t>The Black Mood coffee shop, located in Black Mood coffee shop, Tajerouine, is a popular destination for coffee lovers. The shop is open 24 hours a day and offers a wide variety of coffee drinks, as well as pastries and snacks. The shop is also known for its friendly staff and relaxed atmosphere, making it a great place to relax and enjoy a cup of coffee.</t>
         </is>
       </c>
     </row>
@@ -1857,8 +1858,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for a beautiful park, try Ta'D'Art located at VG6X+P9J Ta'D'Art, Tajerouine. 
-This top-rated park is perfect for nature lovers and is open from 08:00-00:00. To get there, use these GPS coordinates: 35.8868991, 8.5524255. For more details, visit their website at https://www.google.com/maps/place/Ta%27D%27Art/data=!4m7!3m6!1s0x12fbcc729129105b:0x13820867bd40b262!8m2!3d35.8618419!4d8.5483829!16s%2Fg%2F11dy_mn1hf!19sChIJWxApkXLM-xIRYrJAvWcIghM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 26 241 040.</t>
+          <t>Ta'D'Art, located in Tajerouine, is an establishment classified as a park. It benefits from a very good rating of 4.5 out of 5 stars from 11 reviews. Ta'D'Art opens its doors every day of the week from 8am to midnight (08:00-00:00).</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for a great dining experience, check out Big Ben Resto located at VHR3+G3R Big Ben Resto, Ave H.Bourguiba Rd, Tajerouine. This spot is perfect for Restaurant enthusiasts and offers a great option for Restaurant. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:00-23:00. To get there, use these GPS coordinates: 35.8868991, 8.5524255. For more details, visit their website at https://www.facebook.com/pages/Big-Ben-Resto/1643318282455345 or call them at 22 254 905.</t>
+          <t>Big Ben Resto is a restaurant located in tajerouine, Tunisia. It has a rating of 4.3 out of 5 stars based on 24 reviews. The restaurant offers a variety of dishes and is open from 09:00-23:00. It is located at VHR3+G3R Big Ben Resto, Ave H.Bourguiba Rd, Tajerouine.</t>
         </is>
       </c>
     </row>
@@ -2068,9 +2068,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for a great Cafe, check out Cafe Essalem located at VHV3+G86 Cafe Essalem, Ave H.Bourguiba Rd, Tajerouine. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.8868991, 8.5524255. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Essalem/data=!4m7!3m6!1s0x12fbcbc1ce033585:0xaf992f74f85b810a!8m2!3d35.893789!4d8.55326!16s%2Fg%2F11dxc8tdw0!19sChIJhTUDzsHL-xIRCoFb-HQvma8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 40 188 684.</t>
+          <t>Cafe Essalem, located in Tajerouine, is a highly-rated cafe known for its warm and inviting atmosphere. With a 4.7-star rating based on 11 reviews, this cafe offers a wide range of coffee and tea options, as well as a selection of snacks and pastries. Its convenient location at VHV3+G86 Cafe Essalem, Ave H.Bourguiba Rd, makes it easily accessible to both locals and visitors.</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2167,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for something fun to do, check out Restaurant Bengamra located at VHM2+HR6 Restaurant Bengamra, Tajerouine. This top-rated spot is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.2, it's a must-visit spot. It's open 24 hours a day, 7 days a week. For more details, call them at 97 782 798.</t>
+          <t>Restaurant Bengamra is a restaurant located in Tajerouine, Tunisia. It has a rating of 4.2 out of 5 stars and offers a variety of cuisines. The restaurant is open daily and is located at the coordinates 35.8868991, 8.5524255.</t>
         </is>
       </c>
     </row>
@@ -2276,7 +2274,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for a great family restaurant, check out UP TOWN Cafe &amp; Resto located at WH34+3HC UP TOWN Cafe &amp; Resto, Tajerouine. This top-rated destination is perfect for Restaurant familial lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 10:00-23:00. To get there, use these GPS coordinates: 38.905489, -77.005095. For more details, visit their website at https://m.facebook.com/Tajerouine-UpTown-102854505252105/posts or call them at 51 477 218.</t>
+          <t>UP TOWN Cafe &amp; Resto is a family restaurant located in Tajerouine, Tunisia. It is highly rated on Google with a 5.0 average score from 7 reviews. The restaurant is open from 10:00 AM to 11:00 PM every day and serves a variety of dishes. It also offers delivery and takeout services. The restaurant is owned by UP TOWN Cafe &amp; Resto (proprietaire) and can be found at WH34+3HC UP TOWN Cafe &amp; Resto, Tajerouine.</t>
         </is>
       </c>
     </row>
@@ -2379,7 +2377,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for a great cafe, check out Dose coffee Shop located at VHQ2+J4V Dose coffee Shop, nhj lfrwsy@, Tajerouine. This top-rated destination is perfect for Cafe lovers and has a rating of 4.3. It's open during these hours: 07:30-00:00. For more details, visit their website at https://www.google.com/maps/place/Dose+coffee+Shop/data=!4m7!3m6!1s0x12fbcb58efe83d5b:0xe4e38072650fe2c6!8m2!3d35.8891211!4d8.5502898!16s%2Fg%2F11khslxtcy!19sChIJWz3o71jL-xIRxuIPZXKA4-Q?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 567 145.</t>
+          <t>Dose Coffee Shop is a highly-rated cafe located in Tajerouine, Tunisia, with a 4.3 rating based on 6 reviews. It offers a cozy and welcoming atmosphere, perfect for enjoying a freshly brewed cup of coffee or indulging in other cafe delicacies. The shop is conveniently located at the coordinates (35.8868991, 8.5524255), making it easily accessible for locals and visitors alike. Whether you're looking for a quick caffeine fix or a relaxing afternoon with friends, Dose Coffee Shop is an excellent choice.</t>
         </is>
       </c>
     </row>
@@ -2478,10 +2476,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and seeking a restaurant, head to jbn lHmdny, situated at VHV3+Q43 jbn lHmdny, Tajerouine. 
-This highly-rated destination has a rating of 5.0 and is a great choice for Restaurant lovers. 
-To get assistance, call them at 99 061 517. 
-For more information, visit their website at https://www.google.com/maps/place/%D8%A7%D8%AC%D8%A8%D8%A7%D9%86+%D8%A7%D9%84%D8%AD%D9%85%D8%AF%D8%A7%D9%86%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x12fbcbba3573dd39:0x9200a77821ce7db1!8m2!3d35.8943887!4d8.5528001!16s%2Fg%2F11j8p5mf9r!19sChIJOd1zNbrL-xIRsX3OIXinAJI?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The restaurant "jbn lHmdny" is located in tajerouine, Tunisia. The coordinates are (35.8868991, 8.5524255). The restaurant has 3 reviews and a 5.0 rating. The main category is Restaurant. The owner is "jbn lHmdny (proprietaire)". The restaurant's phone number is 99 061 517 and the address is VHV3+Q43 jbn lHmdny, Tajerouine.</t>
         </is>
       </c>
     </row>
@@ -2580,9 +2575,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for something fun to do, check out Restaurant Malek located at VHV2+9V4 Restaurant Malek. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8868991, 8.5524255. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Malek/data=!4m7!3m6!1s0x12fbcb5a4fdcca37:0x9795c0e4b9ac96c9!8m2!3d35.893384!4d8.5521886!16s%2Fg%2F11h_2cngdq!19sChIJN8rcT1rL-xIRyZasueTAlZc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 674 965.</t>
+          <t>Restaurant Malek is a highly rated restaurant in Tajerouine, Tunisia. It has received 2 reviews and currently holds a 5.0 rating. The restaurant's main category is Restaurant and it is located at the coordinates (35.8868991, 8.5524255). Unfortunately, we do not have any additional information about the restaurant's offerings, website, or operating hours.</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2678,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for a Pizzeria, check out Lemporio located at Rue el hbib thamer, Tajerouine. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.8868991, 8.5524255. For more details, visit their website at https://www.google.com/maps/place/Lemporio/data=!4m7!3m6!1s0x12fbcb68eab700c1:0xa68e2cee4334713c!8m2!3d35.890365!4d8.5520637!16s%2Fg%2F11t4z9lq0l!19sChIJwQC36mjL-xIRPHE0Q-4sjqY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 25 678 111.</t>
+          <t>Lemporio is a Pizzeria located in Rue el hbib thamer, Tajerouine (coordinates: 35.8868991, 8.5524255) and open 24 hours a day. It features a wide selection of pizzas and other Italian dishes, accompanied by a range of drinks.</t>
         </is>
       </c>
     </row>
@@ -2780,7 +2773,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for a Gare routiere, check out gare routiere located at gare routiere, Tajerouine. This top-rated destination has a rating of 3.5, making it a must-visit spot for Gare routiere lovers. To find out more, visit their website at https://www.google.com/maps/place/gare+routi%C3%A8re/data=!4m7!3m6!1s0x12fbcbeae1eff6cd:0x54d3e5db86b10e7!8m2!3d35.8906356!4d8.5516302!16s%2Fg%2F12hl0fnq1!19sChIJzfbv4erL-xIR5xBruF0-TQU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The bus station in Tajerouine, Tunisia, offers a variety of services to travelers. It is located at coordinates (35.8908111, 8.5514672) and has a rating of 3.5 out of 5 stars on Google. The station provides a convenient and affordable way to travel to and from Tajerouine, and it is a popular choice for both locals and tourists.</t>
         </is>
       </c>
     </row>
@@ -2875,7 +2868,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and in search of a Gare routiere, head to gare routiere situated at gare routiere, Tajerouine. This well-regarded destination has garnered a 3.5-star rating and is the perfect spot for Gare routiere enthusiasts. Its GPS coordinates for simple navigation are (35.8908111, 8.5514672). For further information, you can also visit their website.</t>
+          <t>Gare Routiere is a bus station located in Tajerouine, Tunisia. It offers bus services to various destinations and is a convenient transportation hub for the region. The station is located at (35.8908111, 8.5514672).</t>
         </is>
       </c>
     </row>
